--- a/graduation/landt/tables/工作簿2.xlsx
+++ b/graduation/landt/tables/工作簿2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="22">
   <si>
     <t>Cyc - ATC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1543,6 +1543,18 @@
     <t>atc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Cyc - ATC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyc - Tabu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vtr - Tabu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1600,6 +1612,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2304,11 +2384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352974688"/>
-        <c:axId val="352971968"/>
+        <c:axId val="1642923936"/>
+        <c:axId val="1642921216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352974688"/>
+        <c:axId val="1642923936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,12 +2445,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352971968"/>
+        <c:crossAx val="1642921216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352971968"/>
+        <c:axId val="1642921216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352974688"/>
+        <c:crossAx val="1642923936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2686,11 +2766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="353986992"/>
-        <c:axId val="353987536"/>
+        <c:axId val="1653953920"/>
+        <c:axId val="1653956640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="353986992"/>
+        <c:axId val="1653953920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353987536"/>
+        <c:crossAx val="1653956640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353987536"/>
+        <c:axId val="1653956640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353986992"/>
+        <c:crossAx val="1653953920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3173,11 +3253,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="353988080"/>
-        <c:axId val="353992976"/>
+        <c:axId val="1653964800"/>
+        <c:axId val="1653967520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="353988080"/>
+        <c:axId val="1653964800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3297,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353992976"/>
+        <c:crossAx val="1653967520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3225,7 +3305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353992976"/>
+        <c:axId val="1653967520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3406,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353988080"/>
+        <c:crossAx val="1653964800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3647,11 +3727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="353995152"/>
-        <c:axId val="353995696"/>
+        <c:axId val="1653946304"/>
+        <c:axId val="1653940320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="353995152"/>
+        <c:axId val="1653946304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3691,7 +3771,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353995696"/>
+        <c:crossAx val="1653940320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3699,7 +3779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353995696"/>
+        <c:axId val="1653940320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3808,7 +3888,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353995152"/>
+        <c:crossAx val="1653946304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4129,11 +4209,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="355244512"/>
-        <c:axId val="355248320"/>
+        <c:axId val="1653941952"/>
+        <c:axId val="1653963712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355244512"/>
+        <c:axId val="1653941952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,7 +4253,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355248320"/>
+        <c:crossAx val="1653963712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4181,7 +4261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355248320"/>
+        <c:axId val="1653963712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4295,7 +4375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355244512"/>
+        <c:crossAx val="1653941952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4616,11 +4696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="355241792"/>
-        <c:axId val="355238528"/>
+        <c:axId val="1653943040"/>
+        <c:axId val="1653939232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355241792"/>
+        <c:axId val="1653943040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,7 +4740,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355238528"/>
+        <c:crossAx val="1653939232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4668,7 +4748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355238528"/>
+        <c:axId val="1653939232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,7 +4849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355241792"/>
+        <c:crossAx val="1653943040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -5090,11 +5170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="355243424"/>
-        <c:axId val="355250496"/>
+        <c:axId val="1653947392"/>
+        <c:axId val="1653964256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355243424"/>
+        <c:axId val="1653947392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,7 +5214,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355250496"/>
+        <c:crossAx val="1653964256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5142,7 +5222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355250496"/>
+        <c:axId val="1653964256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5197,6 +5277,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5251,12 +5332,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355243424"/>
+        <c:crossAx val="1653947392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="tenThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5572,11 +5654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="355249952"/>
-        <c:axId val="355253216"/>
+        <c:axId val="1653968064"/>
+        <c:axId val="1653952832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355249952"/>
+        <c:axId val="1653968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5616,7 +5698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355253216"/>
+        <c:crossAx val="1653952832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5624,7 +5706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355253216"/>
+        <c:axId val="1653952832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5684,6 +5766,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5738,12 +5821,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355249952"/>
+        <c:crossAx val="1653968064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="tenThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6059,11 +6143,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="355241248"/>
-        <c:axId val="355242336"/>
+        <c:axId val="1653951744"/>
+        <c:axId val="1653955552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355241248"/>
+        <c:axId val="1653951744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6103,7 +6187,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355242336"/>
+        <c:crossAx val="1653955552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6111,7 +6195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355242336"/>
+        <c:axId val="1653955552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,6 +6242,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6212,12 +6297,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355241248"/>
+        <c:crossAx val="1653951744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="tenThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6340,6 +6426,606 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'200'!$N$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyc - ATC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'200'!$O$36:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'200'!$O$37:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>551295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491435.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>491485.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'200'!$N$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyc - Tabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'200'!$O$36:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'200'!$O$38:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>495783.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>461957.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459643.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'200'!$N$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vtr - Tabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'200'!$O$36:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'200'!$O$39:$Q$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>440391.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423184.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1746291568"/>
+        <c:axId val="1746287760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1746291568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.35000000000000003"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>决策参数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>λ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" baseline="-25000"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746287760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1746287760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>目标函数值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(G)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746291568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6533,11 +7219,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="355246688"/>
-        <c:axId val="357815200"/>
+        <c:axId val="1653953376"/>
+        <c:axId val="1653945760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355246688"/>
+        <c:axId val="1653953376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6577,7 +7263,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357815200"/>
+        <c:crossAx val="1653945760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6585,7 +7271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357815200"/>
+        <c:axId val="1653945760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6694,494 +7380,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355246688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="tenThousands"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'150'!$H$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cyc - ATC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'150'!$G$36:$G$38</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>m=5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>m=6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>m=7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'150'!$H$36:$H$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>264838</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>205510</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>164038.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'150'!$I$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cyc - Tabu</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'150'!$G$36:$G$38</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>m=5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>m=6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>m=7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'150'!$I$36:$I$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>248084.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>190964</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>151768.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'150'!$J$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vtr - Tabu</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'150'!$G$36:$G$38</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>m=5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>m=6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>m=7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'150'!$J$36:$J$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>247589.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>190116</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>151254.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="357812480"/>
-        <c:axId val="357821184"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="357812480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="357821184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="357821184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>目标函数值</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>(G)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="357812480"/>
+        <c:crossAx val="1653953376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -7457,11 +7656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352977408"/>
-        <c:axId val="352970336"/>
+        <c:axId val="1642912512"/>
+        <c:axId val="1642925568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352977408"/>
+        <c:axId val="1642912512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7518,12 +7717,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352970336"/>
+        <c:crossAx val="1642925568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352970336"/>
+        <c:axId val="1642925568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7580,7 +7779,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352977408"/>
+        <c:crossAx val="1642912512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7655,7 +7854,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'150'!$U$9</c:f>
+              <c:f>'150'!$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7676,7 +7875,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'150'!$T$10:$T$12</c:f>
+              <c:f>'150'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7693,18 +7892,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'150'!$U$10:$U$12</c:f>
+              <c:f>'150'!$H$36:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>239988</c:v>
+                  <c:v>264838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181149.8</c:v>
+                  <c:v>205510</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140845</c:v>
+                  <c:v>164038.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7715,7 +7914,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'150'!$V$9</c:f>
+              <c:f>'150'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7736,7 +7935,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'150'!$T$10:$T$12</c:f>
+              <c:f>'150'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7753,18 +7952,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'150'!$V$10:$V$12</c:f>
+              <c:f>'150'!$I$36:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>230249.8</c:v>
+                  <c:v>248084.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173082.8</c:v>
+                  <c:v>190964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133010.79999999999</c:v>
+                  <c:v>151768.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7775,7 +7974,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'150'!$W$9</c:f>
+              <c:f>'150'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7796,7 +7995,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'150'!$T$10:$T$12</c:f>
+              <c:f>'150'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7813,18 +8012,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'150'!$W$10:$W$12</c:f>
+              <c:f>'150'!$J$36:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>229791.6</c:v>
+                  <c:v>247589.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172252.6</c:v>
+                  <c:v>190116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132305.60000000001</c:v>
+                  <c:v>151254.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7839,11 +8038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357826080"/>
-        <c:axId val="357826624"/>
+        <c:axId val="1653949568"/>
+        <c:axId val="1653937600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357826080"/>
+        <c:axId val="1653949568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7883,7 +8082,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357826624"/>
+        <c:crossAx val="1653937600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7891,7 +8090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357826624"/>
+        <c:axId val="1653937600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7928,13 +8127,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7992,7 +8204,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357826080"/>
+        <c:crossAx val="1653949568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8129,7 +8341,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$H$7</c:f>
+              <c:f>'150'!$U$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8150,7 +8362,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$G$8:$G$10</c:f>
+              <c:f>'150'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8167,18 +8379,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$H$8:$H$10</c:f>
+              <c:f>'150'!$U$10:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>116556.8</c:v>
+                  <c:v>239988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94332.800000000003</c:v>
+                  <c:v>181149.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79288.2</c:v>
+                  <c:v>140845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8189,7 +8401,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$I$7</c:f>
+              <c:f>'150'!$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8210,7 +8422,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$G$8:$G$10</c:f>
+              <c:f>'150'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8227,18 +8439,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$I$8:$I$10</c:f>
+              <c:f>'150'!$V$10:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>105418.6</c:v>
+                  <c:v>230249.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81944</c:v>
+                  <c:v>173082.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68408.600000000006</c:v>
+                  <c:v>133010.79999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8249,7 +8461,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$J$7</c:f>
+              <c:f>'150'!$W$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8270,7 +8482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$G$8:$G$10</c:f>
+              <c:f>'150'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8287,18 +8499,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$J$8:$J$10</c:f>
+              <c:f>'150'!$W$10:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>104903.8</c:v>
+                  <c:v>229791.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81936.600000000006</c:v>
+                  <c:v>172252.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67947.199999999997</c:v>
+                  <c:v>132305.60000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8313,11 +8525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357827168"/>
-        <c:axId val="357822272"/>
+        <c:axId val="1653946848"/>
+        <c:axId val="1653950656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357827168"/>
+        <c:axId val="1653946848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8357,7 +8569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357822272"/>
+        <c:crossAx val="1653950656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8365,7 +8577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357822272"/>
+        <c:axId val="1653950656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8402,19 +8614,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>(G)</a:t>
                 </a:r>
               </a:p>
@@ -8474,7 +8678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357827168"/>
+        <c:crossAx val="1653946848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8611,7 +8815,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$H$35</c:f>
+              <c:f>'100'!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8632,7 +8836,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$G$36:$G$38</c:f>
+              <c:f>'100'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8649,18 +8853,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$H$36:$H$38</c:f>
+              <c:f>'100'!$H$8:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>103325</c:v>
+                  <c:v>116556.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81942</c:v>
+                  <c:v>94332.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67960.5</c:v>
+                  <c:v>79288.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8671,7 +8875,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$I$35</c:f>
+              <c:f>'100'!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8692,7 +8896,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$G$36:$G$38</c:f>
+              <c:f>'100'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8709,18 +8913,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$I$36:$I$38</c:f>
+              <c:f>'100'!$I$8:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>96258</c:v>
+                  <c:v>105418.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73294.5</c:v>
+                  <c:v>81944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59568.5</c:v>
+                  <c:v>68408.600000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8731,7 +8935,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$J$35</c:f>
+              <c:f>'100'!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8752,7 +8956,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$G$36:$G$38</c:f>
+              <c:f>'100'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8769,18 +8973,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$J$36:$J$38</c:f>
+              <c:f>'100'!$J$8:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>95269.5</c:v>
+                  <c:v>104903.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73165</c:v>
+                  <c:v>81936.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59311</c:v>
+                  <c:v>67947.199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8795,11 +8999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357816832"/>
-        <c:axId val="357827712"/>
+        <c:axId val="1653951200"/>
+        <c:axId val="1653962624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357816832"/>
+        <c:axId val="1653951200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8839,7 +9043,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357827712"/>
+        <c:crossAx val="1653962624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8847,7 +9051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357827712"/>
+        <c:axId val="1653962624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8899,11 +9103,6 @@
                   </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8961,7 +9160,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357816832"/>
+        <c:crossAx val="1653951200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9098,7 +9297,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$U$9</c:f>
+              <c:f>'100'!$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9119,7 +9318,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$T$10:$T$12</c:f>
+              <c:f>'100'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9136,18 +9335,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$U$10:$U$12</c:f>
+              <c:f>'100'!$H$36:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90093.2</c:v>
+                  <c:v>103325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69637.2</c:v>
+                  <c:v>81942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56550.8</c:v>
+                  <c:v>67960.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9158,7 +9357,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$V$9</c:f>
+              <c:f>'100'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9179,7 +9378,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$T$10:$T$12</c:f>
+              <c:f>'100'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9196,18 +9395,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$V$10:$V$12</c:f>
+              <c:f>'100'!$I$36:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>85900.6</c:v>
+                  <c:v>96258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64054.400000000001</c:v>
+                  <c:v>73294.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50237.599999999999</c:v>
+                  <c:v>59568.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9218,7 +9417,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$W$9</c:f>
+              <c:f>'100'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9239,7 +9438,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'100'!$T$10:$T$12</c:f>
+              <c:f>'100'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9256,18 +9455,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$W$10:$W$12</c:f>
+              <c:f>'100'!$J$36:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>85206</c:v>
+                  <c:v>95269.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63463.199999999997</c:v>
+                  <c:v>73165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49883.199999999997</c:v>
+                  <c:v>59311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9282,11 +9481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357824448"/>
-        <c:axId val="357820640"/>
+        <c:axId val="1656988464"/>
+        <c:axId val="1656969424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357824448"/>
+        <c:axId val="1656988464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9326,7 +9525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357820640"/>
+        <c:crossAx val="1656969424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9334,7 +9533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357820640"/>
+        <c:axId val="1656969424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9371,13 +9570,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9435,7 +9647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357824448"/>
+        <c:crossAx val="1656988464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9572,7 +9784,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$H$7</c:f>
+              <c:f>'100'!$U$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9593,7 +9805,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$G$8:$G$10</c:f>
+              <c:f>'100'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9610,18 +9822,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$H$8:$H$10</c:f>
+              <c:f>'100'!$U$10:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>58236.2</c:v>
+                  <c:v>90093.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46551.6</c:v>
+                  <c:v>69637.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39186.6</c:v>
+                  <c:v>56550.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9632,7 +9844,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$I$7</c:f>
+              <c:f>'100'!$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9653,7 +9865,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$G$8:$G$10</c:f>
+              <c:f>'100'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9670,18 +9882,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$I$8:$I$10</c:f>
+              <c:f>'100'!$V$10:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>52190.8</c:v>
+                  <c:v>85900.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40733.800000000003</c:v>
+                  <c:v>64054.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34011.199999999997</c:v>
+                  <c:v>50237.599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9692,7 +9904,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$J$7</c:f>
+              <c:f>'100'!$W$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9713,7 +9925,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$G$8:$G$10</c:f>
+              <c:f>'100'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9730,18 +9942,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$J$8:$J$10</c:f>
+              <c:f>'100'!$W$10:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51475.8</c:v>
+                  <c:v>85206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40596.800000000003</c:v>
+                  <c:v>63463.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33730.6</c:v>
+                  <c:v>49883.199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9756,11 +9968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="358264816"/>
-        <c:axId val="358265360"/>
+        <c:axId val="1656989552"/>
+        <c:axId val="1656968880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="358264816"/>
+        <c:axId val="1656989552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9800,7 +10012,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358265360"/>
+        <c:crossAx val="1656968880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9808,7 +10020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358265360"/>
+        <c:axId val="1656968880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9845,19 +10057,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>(G)</a:t>
                 </a:r>
               </a:p>
@@ -9917,7 +10121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358264816"/>
+        <c:crossAx val="1656989552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -10054,7 +10258,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$H$35</c:f>
+              <c:f>'70'!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10075,7 +10279,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$G$36:$G$38</c:f>
+              <c:f>'70'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10092,18 +10296,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$H$36:$H$38</c:f>
+              <c:f>'70'!$H$8:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51791</c:v>
+                  <c:v>58236.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40170</c:v>
+                  <c:v>46551.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33480</c:v>
+                  <c:v>39186.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10114,7 +10318,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$I$35</c:f>
+              <c:f>'70'!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10135,7 +10339,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$G$36:$G$38</c:f>
+              <c:f>'70'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10152,18 +10356,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$I$36:$I$38</c:f>
+              <c:f>'70'!$I$8:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>47573.5</c:v>
+                  <c:v>52190.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36511</c:v>
+                  <c:v>40733.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29580.5</c:v>
+                  <c:v>34011.199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10174,7 +10378,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$J$35</c:f>
+              <c:f>'70'!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10195,7 +10399,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$G$36:$G$38</c:f>
+              <c:f>'70'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10212,18 +10416,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$J$36:$J$38</c:f>
+              <c:f>'70'!$J$8:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46939</c:v>
+                  <c:v>51475.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36205.5</c:v>
+                  <c:v>40596.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29350.5</c:v>
+                  <c:v>33730.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10238,11 +10442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="358258288"/>
-        <c:axId val="358259376"/>
+        <c:axId val="1656976496"/>
+        <c:axId val="1656975408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="358258288"/>
+        <c:axId val="1656976496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10282,7 +10486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358259376"/>
+        <c:crossAx val="1656975408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10290,7 +10494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358259376"/>
+        <c:axId val="1656975408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10342,11 +10546,6 @@
                   </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10404,7 +10603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358258288"/>
+        <c:crossAx val="1656976496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -10541,7 +10740,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$U$9</c:f>
+              <c:f>'70'!$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10562,7 +10761,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$T$10:$T$12</c:f>
+              <c:f>'70'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10579,18 +10778,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$U$10:$U$12</c:f>
+              <c:f>'70'!$H$36:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45345.8</c:v>
+                  <c:v>51791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34101.599999999999</c:v>
+                  <c:v>40170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27880.799999999999</c:v>
+                  <c:v>33480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10601,7 +10800,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$V$9</c:f>
+              <c:f>'70'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10622,7 +10821,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$T$10:$T$12</c:f>
+              <c:f>'70'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10639,18 +10838,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$V$10:$V$12</c:f>
+              <c:f>'70'!$I$36:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42638.400000000001</c:v>
+                  <c:v>47573.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31583.8</c:v>
+                  <c:v>36511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24862</c:v>
+                  <c:v>29580.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10661,7 +10860,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'70'!$W$9</c:f>
+              <c:f>'70'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10682,7 +10881,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'70'!$T$10:$T$12</c:f>
+              <c:f>'70'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10699,18 +10898,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'70'!$W$10:$W$12</c:f>
+              <c:f>'70'!$J$36:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42111.8</c:v>
+                  <c:v>46939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31159.200000000001</c:v>
+                  <c:v>36205.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24576.799999999999</c:v>
+                  <c:v>29350.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10725,11 +10924,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="358262096"/>
-        <c:axId val="358263184"/>
+        <c:axId val="1656980848"/>
+        <c:axId val="1656970512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="358262096"/>
+        <c:axId val="1656980848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10769,7 +10968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358263184"/>
+        <c:crossAx val="1656970512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10777,7 +10976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358263184"/>
+        <c:axId val="1656970512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10814,13 +11013,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10878,11 +11090,11 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358262096"/>
+        <c:crossAx val="1656980848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
-          <c:custUnit val="1000"/>
+          <c:builtInUnit val="tenThousands"/>
           <c:dispUnitsLbl>
             <c:spPr>
               <a:noFill/>
@@ -11015,7 +11227,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$H$7</c:f>
+              <c:f>'70'!$U$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11036,7 +11248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$G$8:$G$10</c:f>
+              <c:f>'70'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11053,18 +11265,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$H$8:$H$10</c:f>
+              <c:f>'70'!$U$10:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35911.599999999999</c:v>
+                  <c:v>45345.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29568.6</c:v>
+                  <c:v>34101.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25104.799999999999</c:v>
+                  <c:v>27880.799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11075,7 +11287,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$I$7</c:f>
+              <c:f>'70'!$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11096,7 +11308,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$G$8:$G$10</c:f>
+              <c:f>'70'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11113,18 +11325,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$I$8:$I$10</c:f>
+              <c:f>'70'!$V$10:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30910</c:v>
+                  <c:v>42638.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25205</c:v>
+                  <c:v>31583.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20784.599999999999</c:v>
+                  <c:v>24862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11135,7 +11347,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$J$7</c:f>
+              <c:f>'70'!$W$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11156,7 +11368,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$G$8:$G$10</c:f>
+              <c:f>'70'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11173,18 +11385,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$J$8:$J$10</c:f>
+              <c:f>'70'!$W$10:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30563.200000000001</c:v>
+                  <c:v>42111.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24748.6</c:v>
+                  <c:v>31159.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20403.2</c:v>
+                  <c:v>24576.799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11199,11 +11411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359956848"/>
-        <c:axId val="359957392"/>
+        <c:axId val="1656974320"/>
+        <c:axId val="1656987920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359956848"/>
+        <c:axId val="1656974320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11243,7 +11455,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359957392"/>
+        <c:crossAx val="1656987920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11251,7 +11463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359957392"/>
+        <c:axId val="1656987920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11288,19 +11500,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>(G)</a:t>
                 </a:r>
               </a:p>
@@ -11360,7 +11564,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359956848"/>
+        <c:crossAx val="1656974320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11497,7 +11701,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$H$35</c:f>
+              <c:f>'50'!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11518,7 +11722,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$G$36:$G$38</c:f>
+              <c:f>'50'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11535,18 +11739,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$H$36:$H$38</c:f>
+              <c:f>'50'!$H$8:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31425</c:v>
+                  <c:v>35911.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25250</c:v>
+                  <c:v>29568.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21498</c:v>
+                  <c:v>25104.799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11557,7 +11761,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$I$35</c:f>
+              <c:f>'50'!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11578,7 +11782,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$G$36:$G$38</c:f>
+              <c:f>'50'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11595,18 +11799,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$I$36:$I$38</c:f>
+              <c:f>'50'!$I$8:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27933.5</c:v>
+                  <c:v>30910</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22146</c:v>
+                  <c:v>25205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17978.5</c:v>
+                  <c:v>20784.599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11617,7 +11821,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$J$35</c:f>
+              <c:f>'50'!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11638,7 +11842,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$G$36:$G$38</c:f>
+              <c:f>'50'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11655,18 +11859,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$J$36:$J$38</c:f>
+              <c:f>'50'!$J$8:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27745.5</c:v>
+                  <c:v>30563.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21855.5</c:v>
+                  <c:v>24748.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17547.5</c:v>
+                  <c:v>20403.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11681,11 +11885,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359960112"/>
-        <c:axId val="359961200"/>
+        <c:axId val="1656973776"/>
+        <c:axId val="1656986288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359960112"/>
+        <c:axId val="1656973776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11725,7 +11929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359961200"/>
+        <c:crossAx val="1656986288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11733,7 +11937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359961200"/>
+        <c:axId val="1656986288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11785,14 +11989,10 @@
                   </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11847,12 +12047,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359960112"/>
+        <c:crossAx val="1656973776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:custUnit val="1000"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11984,7 +12185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$U$9</c:f>
+              <c:f>'50'!$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12005,7 +12206,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$T$10:$T$12</c:f>
+              <c:f>'50'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -12022,18 +12223,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$U$10:$U$12</c:f>
+              <c:f>'50'!$H$36:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26773.599999999999</c:v>
+                  <c:v>31425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21232.799999999999</c:v>
+                  <c:v>25250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17838.599999999999</c:v>
+                  <c:v>21498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12044,7 +12245,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$V$9</c:f>
+              <c:f>'50'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12065,7 +12266,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$T$10:$T$12</c:f>
+              <c:f>'50'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -12082,18 +12283,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$V$10:$V$12</c:f>
+              <c:f>'50'!$I$36:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24788.400000000001</c:v>
+                  <c:v>27933.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18942.599999999999</c:v>
+                  <c:v>22146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15016.2</c:v>
+                  <c:v>17978.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12104,7 +12305,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50'!$W$9</c:f>
+              <c:f>'50'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12125,7 +12326,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'50'!$T$10:$T$12</c:f>
+              <c:f>'50'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -12142,18 +12343,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50'!$W$10:$W$12</c:f>
+              <c:f>'50'!$J$36:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24226.799999999999</c:v>
+                  <c:v>27745.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18603.400000000001</c:v>
+                  <c:v>21855.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14815.8</c:v>
+                  <c:v>17547.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12168,11 +12369,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359954672"/>
-        <c:axId val="359962288"/>
+        <c:axId val="1656960720"/>
+        <c:axId val="1656967792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359954672"/>
+        <c:axId val="1656960720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12212,7 +12413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359962288"/>
+        <c:crossAx val="1656967792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12220,7 +12421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359962288"/>
+        <c:axId val="1656967792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12257,16 +12458,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12321,12 +12536,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359954672"/>
+        <c:crossAx val="1656960720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:custUnit val="1000"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -12642,11 +12858,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="307037440"/>
-        <c:axId val="307033088"/>
+        <c:axId val="1642918496"/>
+        <c:axId val="1642928832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307037440"/>
+        <c:axId val="1642918496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12686,7 +12902,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307033088"/>
+        <c:crossAx val="1642928832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12694,7 +12910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307033088"/>
+        <c:axId val="1642928832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12803,7 +13019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307037440"/>
+        <c:crossAx val="1642918496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -12940,7 +13156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$H$7</c:f>
+              <c:f>'50'!$U$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12961,7 +13177,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$G$8:$G$10</c:f>
+              <c:f>'50'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -12978,18 +13194,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$H$8:$H$10</c:f>
+              <c:f>'50'!$U$10:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11584.8</c:v>
+                  <c:v>26773.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9627</c:v>
+                  <c:v>21232.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8003.4</c:v>
+                  <c:v>17838.599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13000,7 +13216,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$I$7</c:f>
+              <c:f>'50'!$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13021,7 +13237,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$G$8:$G$10</c:f>
+              <c:f>'50'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -13038,18 +13254,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$I$8:$I$10</c:f>
+              <c:f>'50'!$V$10:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9840.6</c:v>
+                  <c:v>24788.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8133.8</c:v>
+                  <c:v>18942.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6980.4</c:v>
+                  <c:v>15016.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13060,7 +13276,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$J$7</c:f>
+              <c:f>'50'!$W$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13081,7 +13297,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$G$8:$G$10</c:f>
+              <c:f>'50'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -13098,18 +13314,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$J$8:$J$10</c:f>
+              <c:f>'50'!$W$10:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9583.6</c:v>
+                  <c:v>24226.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7978.8</c:v>
+                  <c:v>18603.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6828.2</c:v>
+                  <c:v>14815.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13124,11 +13340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359959568"/>
-        <c:axId val="359959024"/>
+        <c:axId val="1656971056"/>
+        <c:axId val="1656963984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359959568"/>
+        <c:axId val="1656971056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13168,7 +13384,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359959024"/>
+        <c:crossAx val="1656963984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13176,7 +13392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359959024"/>
+        <c:axId val="1656963984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13213,24 +13429,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>(G)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13285,12 +13494,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359959568"/>
+        <c:crossAx val="1656971056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:custUnit val="1000"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -13422,7 +13632,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$H$35</c:f>
+              <c:f>'30'!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13443,7 +13653,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$G$36:$G$38</c:f>
+              <c:f>'30'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -13460,18 +13670,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$H$36:$H$38</c:f>
+              <c:f>'30'!$H$8:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9977.5</c:v>
+                  <c:v>11584.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8192</c:v>
+                  <c:v>9627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6758.5</c:v>
+                  <c:v>8003.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13482,7 +13692,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$I$35</c:f>
+              <c:f>'30'!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13503,7 +13713,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$G$36:$G$38</c:f>
+              <c:f>'30'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -13520,18 +13730,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$I$36:$I$38</c:f>
+              <c:f>'30'!$I$8:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8740</c:v>
+                  <c:v>9840.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7129.5</c:v>
+                  <c:v>8133.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6011.5</c:v>
+                  <c:v>6980.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13542,7 +13752,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$J$35</c:f>
+              <c:f>'30'!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13563,7 +13773,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$G$36:$G$38</c:f>
+              <c:f>'30'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -13580,18 +13790,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$J$36:$J$38</c:f>
+              <c:f>'30'!$J$8:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8527</c:v>
+                  <c:v>9583.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6986.5</c:v>
+                  <c:v>7978.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5888.5</c:v>
+                  <c:v>6828.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13606,11 +13816,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359963376"/>
-        <c:axId val="359963920"/>
+        <c:axId val="1656964528"/>
+        <c:axId val="1656975952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359963376"/>
+        <c:axId val="1656964528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13650,7 +13860,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359963920"/>
+        <c:crossAx val="1656975952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13658,7 +13868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359963920"/>
+        <c:axId val="1656975952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13710,11 +13920,6 @@
                   </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -13772,7 +13977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359963376"/>
+        <c:crossAx val="1656964528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13909,7 +14114,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$U$9</c:f>
+              <c:f>'30'!$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13930,7 +14135,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$T$10:$T$12</c:f>
+              <c:f>'30'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -13947,18 +14152,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$U$10:$U$12</c:f>
+              <c:f>'30'!$H$36:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8370.2000000000007</c:v>
+                  <c:v>9977.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6748.4</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5513.6</c:v>
+                  <c:v>6758.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13969,7 +14174,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$V$9</c:f>
+              <c:f>'30'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13990,7 +14195,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$T$10:$T$12</c:f>
+              <c:f>'30'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -14007,18 +14212,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$V$10:$V$12</c:f>
+              <c:f>'30'!$I$36:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7559.6</c:v>
+                  <c:v>8740</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5989.4</c:v>
+                  <c:v>7129.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4950.8</c:v>
+                  <c:v>6011.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14029,7 +14234,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30'!$W$9</c:f>
+              <c:f>'30'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14050,7 +14255,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'30'!$T$10:$T$12</c:f>
+              <c:f>'30'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -14067,18 +14272,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30'!$W$10:$W$12</c:f>
+              <c:f>'30'!$J$36:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7344.2</c:v>
+                  <c:v>8527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5734.2</c:v>
+                  <c:v>6986.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4828.8</c:v>
+                  <c:v>5888.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14093,11 +14298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359952496"/>
-        <c:axId val="359955216"/>
+        <c:axId val="1656966160"/>
+        <c:axId val="1656982480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359952496"/>
+        <c:axId val="1656966160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14137,7 +14342,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359955216"/>
+        <c:crossAx val="1656982480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14145,7 +14350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359955216"/>
+        <c:axId val="1656982480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14182,13 +14387,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -14246,7 +14464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359952496"/>
+        <c:crossAx val="1656966160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -14383,7 +14601,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$H$7</c:f>
+              <c:f>'30'!$U$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14404,7 +14622,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$G$8:$G$10</c:f>
+              <c:f>'30'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -14421,18 +14639,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$H$8:$H$10</c:f>
+              <c:f>'30'!$U$10:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5581.2</c:v>
+                  <c:v>8370.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4945</c:v>
+                  <c:v>6748.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4203.2</c:v>
+                  <c:v>5513.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14443,7 +14661,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$I$7</c:f>
+              <c:f>'30'!$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14464,7 +14682,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$G$8:$G$10</c:f>
+              <c:f>'30'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -14481,18 +14699,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$I$8:$I$10</c:f>
+              <c:f>'30'!$V$10:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4756.2</c:v>
+                  <c:v>7559.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4117</c:v>
+                  <c:v>5989.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3602</c:v>
+                  <c:v>4950.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14503,7 +14721,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$J$7</c:f>
+              <c:f>'30'!$W$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14524,7 +14742,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$G$8:$G$10</c:f>
+              <c:f>'30'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -14541,18 +14759,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$J$8:$J$10</c:f>
+              <c:f>'30'!$W$10:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4660.8</c:v>
+                  <c:v>7344.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3979</c:v>
+                  <c:v>5734.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3483.8</c:v>
+                  <c:v>4828.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14567,11 +14785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357299296"/>
-        <c:axId val="357311264"/>
+        <c:axId val="1656966704"/>
+        <c:axId val="1656972144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357299296"/>
+        <c:axId val="1656966704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14611,7 +14829,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357311264"/>
+        <c:crossAx val="1656972144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14619,7 +14837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357311264"/>
+        <c:axId val="1656972144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14656,19 +14874,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>(G)</a:t>
                 </a:r>
               </a:p>
@@ -14729,11 +14939,11 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357299296"/>
+        <c:crossAx val="1656966704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
-          <c:custUnit val="100"/>
+          <c:custUnit val="1000"/>
           <c:dispUnitsLbl>
             <c:layout/>
             <c:spPr>
@@ -14867,7 +15077,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$H$35</c:f>
+              <c:f>'20'!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14888,7 +15098,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$G$36:$G$38</c:f>
+              <c:f>'20'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -14905,18 +15115,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$H$36:$H$38</c:f>
+              <c:f>'20'!$H$8:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4780</c:v>
+                  <c:v>5581.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4198.5</c:v>
+                  <c:v>4945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3541</c:v>
+                  <c:v>4203.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14927,7 +15137,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$I$35</c:f>
+              <c:f>'20'!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14948,7 +15158,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$G$36:$G$38</c:f>
+              <c:f>'20'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -14965,18 +15175,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$I$36:$I$38</c:f>
+              <c:f>'20'!$I$8:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4117.5</c:v>
+                  <c:v>4756.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3515</c:v>
+                  <c:v>4117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3050</c:v>
+                  <c:v>3602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14987,7 +15197,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$J$35</c:f>
+              <c:f>'20'!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15008,7 +15218,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$G$36:$G$38</c:f>
+              <c:f>'20'!$G$8:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -15025,18 +15235,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$J$36:$J$38</c:f>
+              <c:f>'20'!$J$8:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3995</c:v>
+                  <c:v>4660.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3415.5</c:v>
+                  <c:v>3979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2985</c:v>
+                  <c:v>3483.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15051,11 +15261,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357296576"/>
-        <c:axId val="357305280"/>
+        <c:axId val="1656974864"/>
+        <c:axId val="1656973232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357296576"/>
+        <c:axId val="1656974864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15095,7 +15305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357305280"/>
+        <c:crossAx val="1656973232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15103,7 +15313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357305280"/>
+        <c:axId val="1656973232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15155,11 +15365,6 @@
                   </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -15218,7 +15423,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357296576"/>
+        <c:crossAx val="1656974864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -15356,7 +15561,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$U$9</c:f>
+              <c:f>'20'!$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15377,7 +15582,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$T$10:$T$12</c:f>
+              <c:f>'20'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -15394,18 +15599,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$U$10:$U$12</c:f>
+              <c:f>'20'!$H$36:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3978.8</c:v>
+                  <c:v>4780</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3398</c:v>
+                  <c:v>4198.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2878.8</c:v>
+                  <c:v>3541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15416,7 +15621,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$V$9</c:f>
+              <c:f>'20'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15437,7 +15642,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$T$10:$T$12</c:f>
+              <c:f>'20'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -15454,18 +15659,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$V$10:$V$12</c:f>
+              <c:f>'20'!$I$36:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3478.8</c:v>
+                  <c:v>4117.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2892.2</c:v>
+                  <c:v>3515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2475.6</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15476,7 +15681,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20'!$W$9</c:f>
+              <c:f>'20'!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15497,7 +15702,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'20'!$T$10:$T$12</c:f>
+              <c:f>'20'!$G$36:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -15514,18 +15719,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20'!$W$10:$W$12</c:f>
+              <c:f>'20'!$J$36:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3329.2</c:v>
+                  <c:v>3995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2712.8</c:v>
+                  <c:v>3415.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2393.1999999999998</c:v>
+                  <c:v>2985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15540,11 +15745,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357308544"/>
-        <c:axId val="357304192"/>
+        <c:axId val="1661467312"/>
+        <c:axId val="1661473296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357308544"/>
+        <c:axId val="1661467312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15584,7 +15789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357304192"/>
+        <c:crossAx val="1661473296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15592,7 +15797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357304192"/>
+        <c:axId val="1661473296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15629,17 +15834,29 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>目标函数值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>(G)</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15694,13 +15911,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357308544"/>
+        <c:crossAx val="1661467312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:custUnit val="100"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -15832,6 +16048,482 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'20'!$U$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyc - ATC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20'!$T$10:$T$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>m=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20'!$U$10:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3978.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2878.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20'!$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyc - Tabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20'!$T$10:$T$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>m=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20'!$V$10:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3478.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2892.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2475.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20'!$W$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vtr - Tabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20'!$T$10:$T$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>m=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20'!$W$10:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3329.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2712.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2393.1999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1661462416"/>
+        <c:axId val="1661443376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1661462416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661443376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1661443376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>目标函数值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(G)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661462416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:custUnit val="100"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'10'!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -16016,11 +16708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357313440"/>
-        <c:axId val="357290048"/>
+        <c:axId val="1661444464"/>
+        <c:axId val="1661440656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357313440"/>
+        <c:axId val="1661444464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16063,7 +16755,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357290048"/>
+        <c:crossAx val="1661440656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16071,7 +16763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357290048"/>
+        <c:axId val="1661440656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16126,6 +16818,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16180,7 +16873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357313440"/>
+        <c:crossAx val="1661444464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16468,11 +17161,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="352692432"/>
-        <c:axId val="352690256"/>
+        <c:axId val="1642906528"/>
+        <c:axId val="1642931008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352692432"/>
+        <c:axId val="1642906528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16512,7 +17205,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352690256"/>
+        <c:crossAx val="1642931008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16520,7 +17213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352690256"/>
+        <c:axId val="1642931008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16634,7 +17327,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352692432"/>
+        <c:crossAx val="1642906528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -16955,11 +17648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="352693520"/>
-        <c:axId val="352694064"/>
+        <c:axId val="1642902176"/>
+        <c:axId val="1642915776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352693520"/>
+        <c:axId val="1642902176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16999,7 +17692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352694064"/>
+        <c:crossAx val="1642915776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17007,7 +17700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352694064"/>
+        <c:axId val="1642915776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17108,7 +17801,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352693520"/>
+        <c:crossAx val="1642902176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -17429,11 +18122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="352688624"/>
-        <c:axId val="352689168"/>
+        <c:axId val="1642905440"/>
+        <c:axId val="1642905984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352688624"/>
+        <c:axId val="1642905440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17473,7 +18166,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352689168"/>
+        <c:crossAx val="1642905984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17481,7 +18174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352689168"/>
+        <c:axId val="1642905984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17590,7 +18283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352688624"/>
+        <c:crossAx val="1642905440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -17911,11 +18604,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="353988624"/>
-        <c:axId val="353982096"/>
+        <c:axId val="1642910880"/>
+        <c:axId val="1642913056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="353988624"/>
+        <c:axId val="1642910880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17955,7 +18648,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353982096"/>
+        <c:crossAx val="1642913056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17963,7 +18656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353982096"/>
+        <c:axId val="1642913056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18077,7 +18770,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353988624"/>
+        <c:crossAx val="1642910880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -18398,11 +19091,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="353984272"/>
-        <c:axId val="353981552"/>
+        <c:axId val="1642911968"/>
+        <c:axId val="1642913600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="353984272"/>
+        <c:axId val="1642911968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18442,7 +19135,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353981552"/>
+        <c:crossAx val="1642913600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18450,7 +19143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353981552"/>
+        <c:axId val="1642913600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18551,7 +19244,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353984272"/>
+        <c:crossAx val="1642911968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -18872,11 +19565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="353983728"/>
-        <c:axId val="353986448"/>
+        <c:axId val="1642922304"/>
+        <c:axId val="1642922848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="353983728"/>
+        <c:axId val="1642922304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18916,7 +19609,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353986448"/>
+        <c:crossAx val="1642922848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18924,7 +19617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353986448"/>
+        <c:axId val="1642922848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19033,7 +19726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353983728"/>
+        <c:crossAx val="1642922304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -20344,6 +21037,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25125,7 +25858,7 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -25152,8 +25885,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25254,7 +25987,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -25286,10 +26019,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -25329,22 +26062,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -25449,8 +26183,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25582,19 +26316,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -25608,6 +26343,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -35198,6 +35944,509 @@
 </file>
 
 <file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -39723,6 +40972,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76532</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>68790</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64722</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -39933,7 +41212,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="142" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6._1" connectionId="89" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable100.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39941,51 +41220,51 @@
 </file>
 
 <file path=xl/queryTables/queryTable101.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="84" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable102.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_70_6." connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable103.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="149" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable104.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_6." connectionId="154" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable102.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_70_6." connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable105.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="96" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable106.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5._1" connectionId="153" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable105.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_70_5." connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable107.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="109" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable106.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_70_7." connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable108.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="97" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable108.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_50_6." connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable109.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_50_7." connectionId="138" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_50_6." connectionId="137" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_1000_7." connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_1000_5." connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable110.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="109" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_50_5." connectionId="136" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable111.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_50_5." connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_50_7." connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable112.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39993,215 +41272,215 @@
 </file>
 
 <file path=xl/queryTables/queryTable113.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="150" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable114.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_50_7." connectionId="138" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable115.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_50_5." connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable116.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_50_6." connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable117.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_50_7." connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable114.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_50_6." connectionId="137" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable115.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_50_6." connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable116.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="150" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable117.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_50_5." connectionId="136" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable118.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_50_5." connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_50_5." connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable119.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_50_7." connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_50_6." connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_1000_5." connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7." connectionId="100" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable120.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_30_6." connectionId="130" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable121.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_30_5." connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable122.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_30_7." connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable123.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_30_7." connectionId="131" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable124.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_30_7." connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable125.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_30_5." connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable121.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_30_7." connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable126.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="110" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable127.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_30_6." connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable128.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_30_6." connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable129.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_30_5." connectionId="129" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="88" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable130.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="86" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable131.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="151" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable123.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_30_6." connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable124.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_30_7." connectionId="131" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable125.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="86" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable126.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_30_5." connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable127.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="110" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable128.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_30_7." connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable129.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_30_6." connectionId="130" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_1000_6." connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable130.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_30_6." connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable132.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="98" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable132.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_30_5." connectionId="129" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable133.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="111" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable134.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_7." connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable135.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_5." connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable136.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_6." connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable137.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_6." connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable138.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_7." connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable139.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_6." connectionId="121" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_1000_7." connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable140.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="87" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable141.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_7." connectionId="125" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable142.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="99" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable143.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_5." connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable144.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_5." connectionId="118" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable145.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="152" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable134.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_5." connectionId="118" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable146.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_5." connectionId="116" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable135.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_5." connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable147.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_6." connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable136.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_7." connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable137.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="99" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable138.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_6." connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable139.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_7." connectionId="125" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="88" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable140.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="111" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable141.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_5." connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable142.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="87" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable143.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_7." connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable144.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_6." connectionId="121" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable145.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_6." connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable148.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_5." connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable149.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_7." connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_1000_6." connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable150.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_6." connectionId="119" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable151.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_7._1" connectionId="124" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable152.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_5." connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable153.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_6._1" connectionId="120" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable154.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_7." connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable155.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_6." connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable156.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_5._1" connectionId="117" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable157.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_7." connectionId="122" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable148.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_7." connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="143" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable149.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_7." connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_750_7." connectionId="158" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5._1" connectionId="77" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable150.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_5." connectionId="116" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable151.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_6._1" connectionId="120" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable152.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_6." connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable153.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_20_6." connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable154.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_20_5." connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable155.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_5._1" connectionId="117" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable156.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_7._1" connectionId="124" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable157.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_20_6." connectionId="119" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_750_7." connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="143" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_750_6._1" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_750_7." connectionId="158" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_750_6." connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40209,87 +41488,87 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="90" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_750_5." connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_750_5." connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_750_7." connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_750_6._1" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_750_5." connectionId="156" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_750_6." connectionId="157" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="102" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="78" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_750_5." connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_500_7." connectionId="141" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="102" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_750_6." connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="91" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_750_6." connectionId="157" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_500_6." connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_750_7." connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_500_7." connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="90" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_500_7." connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_750_5." connectionId="156" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="103" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_750_5." connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_500_6." connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_500_5." connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_500_5." connectionId="139" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7." connectionId="100" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_500_5." connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_500_7." connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="91" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_500_6." connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_500_7." connectionId="141" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="103" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_500_5." connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="79" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_500_7." connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_500_6." connectionId="140" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_500_5." connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40297,7 +41576,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_500_6." connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_500_6." connectionId="140" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40305,7 +41584,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_300_6." connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_300_7." connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40313,171 +41592,171 @@
 </file>
 
 <file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_300_6." connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_300_5." connectionId="132" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="104" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_300_7." connectionId="134" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="80" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="145" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_1000_6." connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_300_5." connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_300_7." connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_300_7." connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="145" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_300_5." connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_300_6." connectionId="133" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_300_6." connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_300_7." connectionId="134" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_200_6." connectionId="127" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_1000_5." connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_200_5." connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="80" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="146" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_300_5." connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_200_5." connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="104" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_200_7." connectionId="128" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_300_7." connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_1000_5." connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_300_6." connectionId="133" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="93" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_200_5." connectionId="126" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_200_7._1" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="81" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_200_7." connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_200_6." connectionId="127" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_200_6." connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="146" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="105" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_200_5." connectionId="126" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_200_5." connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_200_7._1" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="93" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_200_6._1" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_200_7." connectionId="128" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_150_6." connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="105" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="82" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_200_5." connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="142" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="81" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_150_7." connectionId="114" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_150_5." connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_150_7." connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_150_6." connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_150_7." connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_150_5." connectionId="112" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_150_6." connectionId="113" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="94" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="106" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="147" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_1000_7." connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_150_7." connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_150_6." connectionId="113" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_150_6." connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="94" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_150_5." connectionId="112" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_150_5." connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_150_7." connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="147" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_150_6." connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_150_7." connectionId="114" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6._1" connectionId="89" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="82" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable81.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_100_7." connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="83" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable82.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40485,59 +41764,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable83.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_100_7." connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable84.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_100_5." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable85.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="148" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable86.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_100_7." connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable87.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_100_6." connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable88.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_100_6." connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable89.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_100_5." connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable84.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="83" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5._1" connectionId="77" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable85.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_100_7." connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable90.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_100_7." connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable86.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_100_6." connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable91.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="95" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable92.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_100_5." connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable93.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_100_6." connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable88.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="148" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable89.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_100_5." connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_1000_6." connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable90.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_100_5." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable91.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_100_7." connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable92.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_6." connectionId="95" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable93.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_100_6." connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable94.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_70_5." connectionId="149" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_70_7." connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable95.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basictabu_70_6." connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="108" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable96.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40545,7 +41824,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable97.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_5." connectionId="84" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_70_5." connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable98.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40553,7 +41832,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable99.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lambda1_1000_7._1" connectionId="108" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basicatc_70_6." connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41642,8 +42921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="J10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -42284,8 +43563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -42926,8 +44205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -43568,8 +44847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44751,8 +46030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:J10"/>
+    <sheetView topLeftCell="K4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -45393,8 +46672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46035,8 +47314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46677,8 +47956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47317,10 +48596,708 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36:Q39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.75" customWidth="1"/>
+    <col min="15" max="15" width="9.5" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="4.75" customWidth="1"/>
+    <col min="19" max="19" width="9.5" customWidth="1"/>
+    <col min="21" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0.1</v>
+      </c>
+      <c r="B1">
+        <v>60060.4</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>1000</v>
+      </c>
+      <c r="Q1">
+        <v>6</v>
+      </c>
+      <c r="R1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.2</v>
+      </c>
+      <c r="B2">
+        <v>57984.800000000003</v>
+      </c>
+      <c r="N2">
+        <v>0.4</v>
+      </c>
+      <c r="O2">
+        <v>12758605.800000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.4</v>
+      </c>
+      <c r="R2">
+        <v>9988071.1999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.3</v>
+      </c>
+      <c r="B3">
+        <v>55224.800000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>11663579</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>9026475.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <v>51475.8</v>
+      </c>
+      <c r="N4">
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <v>10515010</v>
+      </c>
+      <c r="Q4">
+        <v>0.6</v>
+      </c>
+      <c r="R4">
+        <v>7929861.4000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>46939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0.6</v>
+      </c>
+      <c r="B6">
+        <v>42111.8</v>
+      </c>
+      <c r="G6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.7</v>
+      </c>
+      <c r="B7">
+        <v>36580.9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0.4</v>
+      </c>
+      <c r="O7">
+        <v>8131055.5999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.8</v>
+      </c>
+      <c r="B8">
+        <v>31165</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <f>O18</f>
+        <v>551295</v>
+      </c>
+      <c r="I8">
+        <f>O24</f>
+        <v>491435.6</v>
+      </c>
+      <c r="J8">
+        <f>O29</f>
+        <v>491485.4</v>
+      </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
+      <c r="O8">
+        <v>7289415</v>
+      </c>
+      <c r="T8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0.9</v>
+      </c>
+      <c r="B9">
+        <v>25279.3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <f>Q18</f>
+        <v>442831.2</v>
+      </c>
+      <c r="I9">
+        <f>Q24</f>
+        <v>442831.2</v>
+      </c>
+      <c r="J9">
+        <f>Q29</f>
+        <v>392325.4</v>
+      </c>
+      <c r="N9">
+        <v>0.6</v>
+      </c>
+      <c r="O9">
+        <v>6227161.7999999998</v>
+      </c>
+      <c r="U9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <f>S18</f>
+        <v>369743.2</v>
+      </c>
+      <c r="I10">
+        <f>S24</f>
+        <v>369743.2</v>
+      </c>
+      <c r="J10">
+        <f>S29</f>
+        <v>322642.8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10">
+        <f>O20</f>
+        <v>440391.6</v>
+      </c>
+      <c r="V10">
+        <f>O26</f>
+        <v>423184.6</v>
+      </c>
+      <c r="W10">
+        <f>O31</f>
+        <v>420668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <f>Q20</f>
+        <v>336759</v>
+      </c>
+      <c r="V11">
+        <f>Q26</f>
+        <v>336759</v>
+      </c>
+      <c r="W11">
+        <f>Q31</f>
+        <v>318062.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="N12">
+        <f>N2</f>
+        <v>0.4</v>
+      </c>
+      <c r="O12">
+        <f>O2</f>
+        <v>12758605.800000001</v>
+      </c>
+      <c r="P12">
+        <f>R2</f>
+        <v>9988071.1999999993</v>
+      </c>
+      <c r="Q12">
+        <f>O7</f>
+        <v>8131055.5999999996</v>
+      </c>
+      <c r="T12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <f>S20</f>
+        <v>269899.59999999998</v>
+      </c>
+      <c r="V12">
+        <f>S26</f>
+        <v>269899.59999999998</v>
+      </c>
+      <c r="W12">
+        <f>S31</f>
+        <v>250808.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="N13">
+        <f t="shared" ref="N13:O14" si="0">N3</f>
+        <v>0.5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>11663579</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P14" si="1">R3</f>
+        <v>9026475.5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q14" si="2">O8</f>
+        <v>7289415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>10515010</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>7929861.4000000004</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>6227161.7999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N18">
+        <v>0.4</v>
+      </c>
+      <c r="O18">
+        <v>551295</v>
+      </c>
+      <c r="P18">
+        <v>0.4</v>
+      </c>
+      <c r="Q18">
+        <v>442831.2</v>
+      </c>
+      <c r="R18">
+        <v>0.4</v>
+      </c>
+      <c r="S18">
+        <v>369743.2</v>
+      </c>
+    </row>
+    <row r="19" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N19">
+        <v>0.5</v>
+      </c>
+      <c r="O19">
+        <v>495783.5</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>389869.5</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>319789</v>
+      </c>
+    </row>
+    <row r="20" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N20">
+        <v>0.6</v>
+      </c>
+      <c r="O20">
+        <v>440391.6</v>
+      </c>
+      <c r="P20">
+        <v>0.6</v>
+      </c>
+      <c r="Q20">
+        <v>336759</v>
+      </c>
+      <c r="R20">
+        <v>0.6</v>
+      </c>
+      <c r="S20">
+        <v>269899.59999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N24">
+        <v>0.4</v>
+      </c>
+      <c r="O24">
+        <v>491435.6</v>
+      </c>
+      <c r="P24">
+        <v>0.4</v>
+      </c>
+      <c r="Q24">
+        <v>442831.2</v>
+      </c>
+      <c r="R24">
+        <v>0.4</v>
+      </c>
+      <c r="S24">
+        <v>369743.2</v>
+      </c>
+    </row>
+    <row r="25" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N25">
+        <v>0.5</v>
+      </c>
+      <c r="O25">
+        <v>461957.5</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>389869.5</v>
+      </c>
+      <c r="R25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>319789</v>
+      </c>
+    </row>
+    <row r="26" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N26">
+        <v>0.6</v>
+      </c>
+      <c r="O26">
+        <v>423184.6</v>
+      </c>
+      <c r="P26">
+        <v>0.6</v>
+      </c>
+      <c r="Q26">
+        <v>336759</v>
+      </c>
+      <c r="R26">
+        <v>0.6</v>
+      </c>
+      <c r="S26">
+        <v>269899.59999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="O27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N29">
+        <v>0.4</v>
+      </c>
+      <c r="O29">
+        <v>491485.4</v>
+      </c>
+      <c r="P29">
+        <v>0.4</v>
+      </c>
+      <c r="Q29">
+        <v>392325.4</v>
+      </c>
+      <c r="R29">
+        <v>0.4</v>
+      </c>
+      <c r="S29">
+        <v>322642.8</v>
+      </c>
+    </row>
+    <row r="30" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N30">
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <v>459643.5</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>359077</v>
+      </c>
+      <c r="R30">
+        <v>0.5</v>
+      </c>
+      <c r="S30">
+        <v>291215</v>
+      </c>
+    </row>
+    <row r="31" spans="14:19" x14ac:dyDescent="0.15">
+      <c r="N31">
+        <v>0.6</v>
+      </c>
+      <c r="O31">
+        <v>420668</v>
+      </c>
+      <c r="P31">
+        <v>0.6</v>
+      </c>
+      <c r="Q31">
+        <v>318062.8</v>
+      </c>
+      <c r="R31">
+        <v>0.6</v>
+      </c>
+      <c r="S31">
+        <v>250808.8</v>
+      </c>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <f>O19</f>
+        <v>495783.5</v>
+      </c>
+      <c r="I36">
+        <f>O25</f>
+        <v>461957.5</v>
+      </c>
+      <c r="J36">
+        <f>O30</f>
+        <v>459643.5</v>
+      </c>
+      <c r="O36">
+        <v>0.4</v>
+      </c>
+      <c r="P36">
+        <v>0.5</v>
+      </c>
+      <c r="Q36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <f>Q19</f>
+        <v>389869.5</v>
+      </c>
+      <c r="I37">
+        <f>Q25</f>
+        <v>389869.5</v>
+      </c>
+      <c r="J37">
+        <f>Q30</f>
+        <v>359077</v>
+      </c>
+      <c r="N37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37">
+        <f>O18</f>
+        <v>551295</v>
+      </c>
+      <c r="P37">
+        <f>O24</f>
+        <v>491435.6</v>
+      </c>
+      <c r="Q37">
+        <f>O29</f>
+        <v>491485.4</v>
+      </c>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <f>S19</f>
+        <v>319789</v>
+      </c>
+      <c r="I38">
+        <f>S25</f>
+        <v>319789</v>
+      </c>
+      <c r="J38">
+        <f>S30</f>
+        <v>291215</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:O39" si="3">O19</f>
+        <v>495783.5</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ref="P38:P39" si="4">O25</f>
+        <v>461957.5</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:Q39" si="5">O30</f>
+        <v>459643.5</v>
+      </c>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>440391.6</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>423184.6</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>420668</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47478,648 +49455,6 @@
       </c>
       <c r="H8">
         <f>O18</f>
-        <v>551295</v>
-      </c>
-      <c r="I8">
-        <f>O24</f>
-        <v>491435.6</v>
-      </c>
-      <c r="J8">
-        <f>O29</f>
-        <v>491485.4</v>
-      </c>
-      <c r="N8">
-        <v>0.5</v>
-      </c>
-      <c r="O8">
-        <v>7289415</v>
-      </c>
-      <c r="T8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>0.9</v>
-      </c>
-      <c r="B9">
-        <v>25279.3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9">
-        <f>Q18</f>
-        <v>442831.2</v>
-      </c>
-      <c r="I9">
-        <f>Q24</f>
-        <v>442831.2</v>
-      </c>
-      <c r="J9">
-        <f>Q29</f>
-        <v>392325.4</v>
-      </c>
-      <c r="N9">
-        <v>0.6</v>
-      </c>
-      <c r="O9">
-        <v>6227161.7999999998</v>
-      </c>
-      <c r="U9" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
-        <v>1</v>
-      </c>
-      <c r="W9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <f>S18</f>
-        <v>369743.2</v>
-      </c>
-      <c r="I10">
-        <f>S24</f>
-        <v>369743.2</v>
-      </c>
-      <c r="J10">
-        <f>S29</f>
-        <v>322642.8</v>
-      </c>
-      <c r="T10" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10">
-        <f>O20</f>
-        <v>440391.6</v>
-      </c>
-      <c r="V10">
-        <f>O26</f>
-        <v>423184.6</v>
-      </c>
-      <c r="W10">
-        <f>O31</f>
-        <v>420668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="T11" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11">
-        <f>Q20</f>
-        <v>336759</v>
-      </c>
-      <c r="V11">
-        <f>Q26</f>
-        <v>336759</v>
-      </c>
-      <c r="W11">
-        <f>Q31</f>
-        <v>318062.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="N12">
-        <f>N2</f>
-        <v>0.4</v>
-      </c>
-      <c r="O12">
-        <f>O2</f>
-        <v>12758605.800000001</v>
-      </c>
-      <c r="P12">
-        <f>R2</f>
-        <v>9988071.1999999993</v>
-      </c>
-      <c r="Q12">
-        <f>O7</f>
-        <v>8131055.5999999996</v>
-      </c>
-      <c r="T12" t="s">
-        <v>15</v>
-      </c>
-      <c r="U12">
-        <f>S20</f>
-        <v>269899.59999999998</v>
-      </c>
-      <c r="V12">
-        <f>S26</f>
-        <v>269899.59999999998</v>
-      </c>
-      <c r="W12">
-        <f>S31</f>
-        <v>250808.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="N13">
-        <f t="shared" ref="N13:O14" si="0">N3</f>
-        <v>0.5</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>11663579</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ref="P13:P14" si="1">R3</f>
-        <v>9026475.5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ref="Q13:Q14" si="2">O8</f>
-        <v>7289415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>10515010</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
-        <v>7929861.4000000004</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>6227161.7999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="O17">
-        <v>5</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-      <c r="S17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N18">
-        <v>0.4</v>
-      </c>
-      <c r="O18">
-        <v>551295</v>
-      </c>
-      <c r="P18">
-        <v>0.4</v>
-      </c>
-      <c r="Q18">
-        <v>442831.2</v>
-      </c>
-      <c r="R18">
-        <v>0.4</v>
-      </c>
-      <c r="S18">
-        <v>369743.2</v>
-      </c>
-    </row>
-    <row r="19" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N19">
-        <v>0.5</v>
-      </c>
-      <c r="O19">
-        <v>495783.5</v>
-      </c>
-      <c r="P19">
-        <v>0.5</v>
-      </c>
-      <c r="Q19">
-        <v>389869.5</v>
-      </c>
-      <c r="R19">
-        <v>0.5</v>
-      </c>
-      <c r="S19">
-        <v>319789</v>
-      </c>
-    </row>
-    <row r="20" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N20">
-        <v>0.6</v>
-      </c>
-      <c r="O20">
-        <v>440391.6</v>
-      </c>
-      <c r="P20">
-        <v>0.6</v>
-      </c>
-      <c r="Q20">
-        <v>336759</v>
-      </c>
-      <c r="R20">
-        <v>0.6</v>
-      </c>
-      <c r="S20">
-        <v>269899.59999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="O22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="O23">
-        <v>5</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-      <c r="S23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N24">
-        <v>0.4</v>
-      </c>
-      <c r="O24">
-        <v>491435.6</v>
-      </c>
-      <c r="P24">
-        <v>0.4</v>
-      </c>
-      <c r="Q24">
-        <v>442831.2</v>
-      </c>
-      <c r="R24">
-        <v>0.4</v>
-      </c>
-      <c r="S24">
-        <v>369743.2</v>
-      </c>
-    </row>
-    <row r="25" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N25">
-        <v>0.5</v>
-      </c>
-      <c r="O25">
-        <v>461957.5</v>
-      </c>
-      <c r="P25">
-        <v>0.5</v>
-      </c>
-      <c r="Q25">
-        <v>389869.5</v>
-      </c>
-      <c r="R25">
-        <v>0.5</v>
-      </c>
-      <c r="S25">
-        <v>319789</v>
-      </c>
-    </row>
-    <row r="26" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N26">
-        <v>0.6</v>
-      </c>
-      <c r="O26">
-        <v>423184.6</v>
-      </c>
-      <c r="P26">
-        <v>0.6</v>
-      </c>
-      <c r="Q26">
-        <v>336759</v>
-      </c>
-      <c r="R26">
-        <v>0.6</v>
-      </c>
-      <c r="S26">
-        <v>269899.59999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="O27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="O28">
-        <v>5</v>
-      </c>
-      <c r="Q28">
-        <v>6</v>
-      </c>
-      <c r="S28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N29">
-        <v>0.4</v>
-      </c>
-      <c r="O29">
-        <v>491485.4</v>
-      </c>
-      <c r="P29">
-        <v>0.4</v>
-      </c>
-      <c r="Q29">
-        <v>392325.4</v>
-      </c>
-      <c r="R29">
-        <v>0.4</v>
-      </c>
-      <c r="S29">
-        <v>322642.8</v>
-      </c>
-    </row>
-    <row r="30" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N30">
-        <v>0.5</v>
-      </c>
-      <c r="O30">
-        <v>459643.5</v>
-      </c>
-      <c r="P30">
-        <v>0.5</v>
-      </c>
-      <c r="Q30">
-        <v>359077</v>
-      </c>
-      <c r="R30">
-        <v>0.5</v>
-      </c>
-      <c r="S30">
-        <v>291215</v>
-      </c>
-    </row>
-    <row r="31" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N31">
-        <v>0.6</v>
-      </c>
-      <c r="O31">
-        <v>420668</v>
-      </c>
-      <c r="P31">
-        <v>0.6</v>
-      </c>
-      <c r="Q31">
-        <v>318062.8</v>
-      </c>
-      <c r="R31">
-        <v>0.6</v>
-      </c>
-      <c r="S31">
-        <v>250808.8</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="H35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36">
-        <f>O19</f>
-        <v>495783.5</v>
-      </c>
-      <c r="I36">
-        <f>O25</f>
-        <v>461957.5</v>
-      </c>
-      <c r="J36">
-        <f>O30</f>
-        <v>459643.5</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37">
-        <f>Q19</f>
-        <v>389869.5</v>
-      </c>
-      <c r="I37">
-        <f>Q25</f>
-        <v>389869.5</v>
-      </c>
-      <c r="J37">
-        <f>Q30</f>
-        <v>359077</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38">
-        <f>S19</f>
-        <v>319789</v>
-      </c>
-      <c r="I38">
-        <f>S25</f>
-        <v>319789</v>
-      </c>
-      <c r="J38">
-        <f>S30</f>
-        <v>291215</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W38"/>
-  <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.75" customWidth="1"/>
-    <col min="15" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="4.75" customWidth="1"/>
-    <col min="17" max="17" width="9.5" customWidth="1"/>
-    <col min="18" max="18" width="4.75" customWidth="1"/>
-    <col min="19" max="19" width="9.5" customWidth="1"/>
-    <col min="21" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>0.1</v>
-      </c>
-      <c r="B1">
-        <v>60060.4</v>
-      </c>
-      <c r="N1">
-        <v>5</v>
-      </c>
-      <c r="O1">
-        <v>1000</v>
-      </c>
-      <c r="Q1">
-        <v>6</v>
-      </c>
-      <c r="R1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0.2</v>
-      </c>
-      <c r="B2">
-        <v>57984.800000000003</v>
-      </c>
-      <c r="N2">
-        <v>0.4</v>
-      </c>
-      <c r="O2">
-        <v>12758605.800000001</v>
-      </c>
-      <c r="Q2">
-        <v>0.4</v>
-      </c>
-      <c r="R2">
-        <v>9988071.1999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0.3</v>
-      </c>
-      <c r="B3">
-        <v>55224.800000000003</v>
-      </c>
-      <c r="N3">
-        <v>0.5</v>
-      </c>
-      <c r="O3">
-        <v>11663579</v>
-      </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>9026475.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0.4</v>
-      </c>
-      <c r="B4">
-        <v>51475.8</v>
-      </c>
-      <c r="N4">
-        <v>0.6</v>
-      </c>
-      <c r="O4">
-        <v>10515010</v>
-      </c>
-      <c r="Q4">
-        <v>0.6</v>
-      </c>
-      <c r="R4">
-        <v>7929861.4000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0.5</v>
-      </c>
-      <c r="B5">
-        <v>46939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0.6</v>
-      </c>
-      <c r="B6">
-        <v>42111.8</v>
-      </c>
-      <c r="G6">
-        <v>0.4</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>0.7</v>
-      </c>
-      <c r="B7">
-        <v>36580.9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>0.4</v>
-      </c>
-      <c r="O7">
-        <v>8131055.5999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>0.8</v>
-      </c>
-      <c r="B8">
-        <v>31165</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <f>O18</f>
         <v>289619.40000000002</v>
       </c>
       <c r="I8">
@@ -48603,8 +49938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
